--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8198803-6806-40A1-8FF4-95B271053D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AF2EC-5D8B-644B-A246-D35F11657A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="1360" windowWidth="14580" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Plasmid</t>
   </si>
@@ -91,21 +90,9 @@
     <t>119.DA4</t>
   </si>
   <si>
-    <t>E22</t>
-  </si>
-  <si>
     <t>119.DA4_100x</t>
   </si>
   <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>119.DA4_1000x</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
     <t>65,65,65,65,65,65,65,65,65,65,65,65</t>
   </si>
   <si>
@@ -118,9 +105,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>pDA332</t>
   </si>
   <si>
@@ -155,6 +139,15 @@
   </si>
   <si>
     <t>B6</t>
+  </si>
+  <si>
+    <t>water_check</t>
+  </si>
+  <si>
+    <t>A22,A23,A24</t>
+  </si>
+  <si>
+    <t>65,65,65</t>
   </si>
 </sst>
 </file>
@@ -237,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -246,6 +239,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -553,16 +549,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,188 +581,178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>200.2</v>
+      </c>
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>188</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6">
-        <v>188</v>
+        <v>219.2</v>
       </c>
       <c r="E6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>188</v>
+        <v>349.1</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="E8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>183.8</v>
+        <v>210.1</v>
       </c>
       <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>1.8380000000000001</v>
+        <v>208</v>
       </c>
       <c r="E10">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>0.18379999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -777,13 +763,16 @@
       <c r="E12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>316.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -794,13 +783,16 @@
       <c r="E13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -811,16 +803,19 @@
       <c r="E14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -829,11 +824,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>

--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AF2EC-5D8B-644B-A246-D35F11657A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929B629-E310-45EF-BD8C-E9B175D4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1360" windowWidth="14580" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="3495" windowWidth="14820" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,16 +549,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,7 +662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -673,13 +673,16 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>349.1</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>349.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -696,7 +699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -713,7 +716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -730,7 +733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,13 +744,13 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>20.8</v>
+        <v>2.08</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -758,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -767,7 +770,7 @@
         <v>316.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -778,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -787,7 +790,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -798,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -807,7 +810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -818,17 +821,17 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>

--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929B629-E310-45EF-BD8C-E9B175D4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ABFF30-6BF3-7D49-A633-C734E8FAFFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="3495" windowWidth="14820" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="3500" windowWidth="14820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,16 +549,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -591,13 +591,16 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,7 +631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,7 +665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -682,7 +685,7 @@
         <v>349.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -699,7 +702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -716,7 +719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -733,7 +736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -750,7 +753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -770,7 +773,7 @@
         <v>316.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -790,7 +793,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -810,7 +813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -827,11 +830,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>

--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ABFF30-6BF3-7D49-A633-C734E8FAFFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC4727-6577-4F70-A9DA-8006F4588AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="3500" windowWidth="14820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="3225" windowWidth="14820" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,16 +549,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -592,7 +592,7 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -600,7 +600,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -614,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -648,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -665,7 +665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -685,7 +685,7 @@
         <v>349.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -702,7 +702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -719,7 +719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -736,7 +736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,7 +753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -773,7 +773,7 @@
         <v>316.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -793,7 +793,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -813,7 +813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -830,11 +830,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>

--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC4727-6577-4F70-A9DA-8006F4588AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CCA37-FC0B-AB44-B493-C538F0CFFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="3225" windowWidth="14820" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15640" yWindow="3040" windowWidth="14820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Plasmid</t>
   </si>
@@ -87,21 +87,12 @@
     <t>pBT009.J1.119.DA4</t>
   </si>
   <si>
-    <t>119.DA4</t>
-  </si>
-  <si>
-    <t>119.DA4_100x</t>
-  </si>
-  <si>
     <t>65,65,65,65,65,65,65,65,65,65,65,65</t>
   </si>
   <si>
     <t>A1,A2,A3,A4,A5,A6,A7</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>pDA303</t>
   </si>
   <si>
-    <t>pDa303</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
@@ -148,12 +136,18 @@
   </si>
   <si>
     <t>65,65,65</t>
+  </si>
+  <si>
+    <t>119.DA4_low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,6 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,19 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,26 +578,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -608,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,10 +625,10 @@
         <v>554.29999999999995</v>
       </c>
       <c r="E4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,10 +642,10 @@
         <v>200.2</v>
       </c>
       <c r="E5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,106 +659,119 @@
         <v>219.2</v>
       </c>
       <c r="E6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>349.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <f>E7-I7</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>103.5</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="D8">
-        <v>352</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>210.1</v>
       </c>
       <c r="E9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2.08</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <f>E11-I11</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>208</v>
-      </c>
-      <c r="E10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>2.08</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -769,19 +779,21 @@
       <c r="E12">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>316.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J14" si="0">E12-I12</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>30</v>
@@ -789,19 +801,21 @@
       <c r="E13">
         <v>40</v>
       </c>
-      <c r="G13">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -809,34 +823,19 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="G14">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/source_plates/220608_source_plate2.xlsx
+++ b/source_plates/220608_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CCA37-FC0B-AB44-B493-C538F0CFFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5A411-5814-460B-9EFC-E219C6BD4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="3040" windowWidth="14820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Plasmid</t>
   </si>
@@ -139,6 +139,39 @@
   </si>
   <si>
     <t>119.DA4_low</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>pDA310</t>
+  </si>
+  <si>
+    <t>pDA311</t>
+  </si>
+  <si>
+    <t>pDA312</t>
+  </si>
+  <si>
+    <t>pDA316</t>
+  </si>
+  <si>
+    <t>pDA317</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -146,9 +179,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +200,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -238,7 +277,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,21 +583,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.15625" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -597,7 +639,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,7 +670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +687,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,7 +704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -684,7 +726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -703,7 +745,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -722,7 +764,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,7 +783,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -763,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -781,11 +823,11 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5">
-        <f t="shared" ref="J12:J14" si="0">E12-I12</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J12:J20" si="0">E12-I12</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -807,7 +849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -829,16 +871,135 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>